--- a/docs/Testcase_UI_v2.xlsx
+++ b/docs/Testcase_UI_v2.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704" tabRatio="874" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704" tabRatio="874" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
     <sheet name="Đăng kí" sheetId="30" r:id="rId2"/>
     <sheet name="Khôi phục mật khẩu" sheetId="31" r:id="rId3"/>
     <sheet name="Tìm kiếm sản phẩm" sheetId="32" r:id="rId4"/>
-    <sheet name="Overview" sheetId="29" r:id="rId5"/>
+    <sheet name="Lọc sản phẩm" sheetId="33" r:id="rId5"/>
+    <sheet name="Hiển thị sản phẩm" sheetId="34" r:id="rId6"/>
+    <sheet name="Sắp xếp sản phẩm" sheetId="35" r:id="rId7"/>
+    <sheet name="Overview" sheetId="29" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="408">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -954,9 +957,6 @@
 Khi mục lịch sử tìm kiếm vẫn còn hiển thị</t>
   </si>
   <si>
-    <t>BUG-002</t>
-  </si>
-  <si>
     <t>Kiểm tra bố cục trang chủ chứa thanh tìm kiếm khi chưa đăng nhập</t>
   </si>
   <si>
@@ -1038,9 +1038,6 @@
     <t>Thực hiện tìm kiếm và hiển thị các sản phẩm có liên quan đến từ khóa "Conan"</t>
   </si>
   <si>
-    <t>BUG-003</t>
-  </si>
-  <si>
     <t>Font: san-serift
 Size: 14px
 Màu chữ: 545760</t>
@@ -1051,6 +1048,617 @@
 Cỡ chữ thường: 13px, màu: 7a7e7f
 Cỡ chữ cho mục lớn: 16px, màu: 0d0e0f
 Cỡ chữ mục lịch sử tìm kiếm: 13px, màu: 333334</t>
+  </si>
+  <si>
+    <t>BUG-02</t>
+  </si>
+  <si>
+    <t>BUG-03</t>
+  </si>
+  <si>
+    <t>UTC071</t>
+  </si>
+  <si>
+    <t>UTC072</t>
+  </si>
+  <si>
+    <t>UTC073</t>
+  </si>
+  <si>
+    <t>UTC074</t>
+  </si>
+  <si>
+    <t>UTC075</t>
+  </si>
+  <si>
+    <t>UTC076</t>
+  </si>
+  <si>
+    <t>UTC077</t>
+  </si>
+  <si>
+    <t>UTC078</t>
+  </si>
+  <si>
+    <t>UTC079</t>
+  </si>
+  <si>
+    <t>UTC080</t>
+  </si>
+  <si>
+    <t>UTC081</t>
+  </si>
+  <si>
+    <t>UTC082</t>
+  </si>
+  <si>
+    <t>UTC083</t>
+  </si>
+  <si>
+    <t>UTC084</t>
+  </si>
+  <si>
+    <t>UTC085</t>
+  </si>
+  <si>
+    <t>Kiểm tra font và size của nội dung phần lọc theo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập: www.fahasa.com
+B2: Nhấn chọn ô tìm kiếm
+B3: Nhập: 'Conan'
+B4: Chọn nút tìm kiếm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra vị trí và nội dung của bộ lọc </t>
+  </si>
+  <si>
+    <t>font: sans-serif
+Tên khối: size: 20px, màu chữ: c92127
+Tên danh mục lọc: size: 13px, màu chữ: 333333
+Lựa chọn lọc: size: 14px, màu hiển thị:  666666, màu hover: bf9a61
+Nút "Xem thêm": size: 13px, màu chữ: c92127</t>
+  </si>
+  <si>
+    <t>Kiểm tra khoảng cách giữa các thành phần</t>
+  </si>
+  <si>
+    <t>Tên khối và tên danh mục lọc đầu tiền là 52px
+Tên danh mục lọc và lụa chọn lọc đầu tiên trong danh mục lọc đó là 20px
+Khoảng cách giữa các lụa chọn lọc trong cùng một danh mục lọc là: 25px
+Khoảng cách giữa lựa chọn lọc và nút "Xem thêm" là 25px
+Khoảng cách giữa các khối danh mục lọc là 42px</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng tương tác của các checkbox</t>
+  </si>
+  <si>
+    <t>B1: Truy cập: www.fahasa.com
+B2: Nhấn chọn ô tìm kiếm
+B3: Nhập: 'Conan'
+B4: Chọn nút tìm kiếm
+B5: Trong danh mục lọc lứa tuổi chọn lựa chọn lọc là 10+
+B6: Nhấn lại vào lựa chọn lọc 10+</t>
+  </si>
+  <si>
+    <t>B1: Truy cập: www.fahasa.com
+B2: Nhấn chọn ô tìm kiếm
+B3: Nhập: 'Conan'
+B4: Chọn nút tìm kiếm
+B5: Trong danh mục lọc nhà cung cấp ấn nút "Xem thêm"
+B6: Trong danh mục lọc nhà cung cấp ấn nút "Hiển ít lại"</t>
+  </si>
+  <si>
+    <t>Khi chọn "Xem thêm" thì sẽ mở rộng các lựa chọn lọc trong danh mục lọc và từ "Xem thêm" thành "Hiện ít lại" và ngược lại</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác nút "Xem thêm</t>
+  </si>
+  <si>
+    <t>Kiểm tra kéo thanh trượt lọc giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập: www.fahasa.com
+B2: Nhấn chọn ô tìm kiếm
+B3: Nhập: 'Conan'
+B4: Chọn nút tìm kiếm
+B5: Kéo một đầu thanh trượt tới 0 và đầu còn lại tới 10000000
+</t>
+  </si>
+  <si>
+    <t>Khi hiển thị cả hai đầu thanh trượt ở bên trái 0 và giá hiển thị là 0 và 0
+Giá nhỏ nhất là 0, lớn nhất là 10000000
+Từ trái qua phải sẽ hiển thị dải màu khi kéo một đầu của thanh trượt: ffaa12 đến c92127
+Khi đó giá hiển thị là 0 và 10000000 và kết quả lọc hiển thị trên nội dung kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>Thông báo lọc giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập: www.fahasa.com
+B2: Nhấn chọn ô tìm kiếm
+B3: Nhập: 'Conan'
+B4: Chọn nút tìm kiếm
+B5: Kéo cả hai đầu tới 10000000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi đó sẽ hiển thị thông báo dưới thanh lọc giá "Không có sản phẩm 10.000.000 đ - 10.000.000 đ"
+size: 13px, màu chữ: 333333
+</t>
+  </si>
+  <si>
+    <t>Khi chọn checkbox sẽ hiển thị dấu "✓" màu ffffff, nền c92127
+Ngay khi chọn thì sẽ hiển thị kết quả lọc ở nội dung kết quả tìm kiếm và phần lọc cũng sẽ hiển thị các danh mục lọc theo sản phẩm
+Ngay khi ấn chọn lại ô checkbox sẽ trở lại với màu nền: ffffff và không có dấu "✓" và nội dung kết quả tìm kiếm sẽ trở lại như ban đầu</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng chọn nhiều lựa chọn lọc trên danh mục</t>
+  </si>
+  <si>
+    <t>B1: Truy cập: www.fahasa.com
+B2: Nhấn chọn ô tìm kiếm
+B3: Nhập: 'Conan'
+B4: Chọn nút tìm kiếm
+B5: Trong danh mục lọc lứa tuổi chọn lựa chọn lọc là 10+ và 15+
+B6: Trong danh mục lọc danh mục chính chọn sách tiếng Việt và danh mục giá chọn 700,000 đ Trở lên</t>
+  </si>
+  <si>
+    <t>Đối với danh mục lọc lứa tuổi có thể chọn từ nhiều lựa chọn danh mục cùng một lúc
+Dối với danh chính và giá thì mỗi lần chỉ chọn được một. Riêng với danh mục chính khi chọn một lựa chọn lọc thì các lựa chọn lọc còn lại sẽ biển mất</t>
+  </si>
+  <si>
+    <t>Độ rộng hiển thị tối thiểu là 1200px, 25% màn hình hiển thị
+Hiển thị bên trái, cách kết quả tìm kiếm 15px
+Nội dung gồm: 
+- Tên khối
+- Tên danh mục lọc, bên trong có các lựa chọn lọc khác (có số lượng sản phẩm tương ứng với mục đó). Có nhiều danh mục lọc hiển thị tùy thuộc theo kết quả tìm kiếm
+- Với danh mục lọc giá, có thanh trượt giá, có thể điều chỉnh khoảng giá
+- Với danh mục lọc dài có nút "Xem thêm" để hiển thị thêm các lựa chọn lọc trong danh mục lọc ấy
+Các lựa chọn lọc trong danh mục lọc không bị cắt hay bị che khuât</t>
+  </si>
+  <si>
+    <t>Độ rộng hiển thị tối thiểu là 1200px, 25% màn hình hiển thị
+Hiển thị bên trái, cách kết quả tìm kiếm 15px
+Nội dung gồm: 
+- Tên khối
+- Tên danh mục lọc, bên trong có các lựa chọn lọc khác (có số lượng sản phẩm tương ứng với mục đó). Có nhiều danh mục lọc hiển thị tùy thuộc theo kết quả tìm kiếm
+- Với danh mục lọc giá, có thanh trượt giá, có thể điều chỉnh khoảng giá
+- Với danh mục lọc dài có nút "Xem thêm" để hiển thị thêm các lựa chọn lọc trong danh mục lọc ấy
+Trong danh mục chính, lựa chọn danh mục Sản phẩm hội sách bị che mất một nửa</t>
+  </si>
+  <si>
+    <t>BUG_004</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị lọc khi  không có sản phẩm nào trong kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập: www.fahasa.com
+B2: Nhấn chọn ô tìm kiếm
+B3: Nhập: 'ConanVietsub'
+B4: Chọn nút tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>Chỉ hiển thị danh mục lọc là giá</t>
+  </si>
+  <si>
+    <t>font: sans-serif
+Tên khối: size: 20px, màu chữ: c92127
+Tên danh mục lọc: size: 13px, màu chữ: 333333
+Lựa chọn lọc: size: 14px, màu hiển thị:  666666, màu hover: bf9a61
+Nút "Xem thêm": size: 13px, màu chữ: c92128</t>
+  </si>
+  <si>
+    <t>Các danh mục lọc và các lựa chọn lọc hiển thị rõ ràng, không bị che khuất, lấp hay bị cẳt
+Trên các trình duyệt khác nhau thì hiển thị phải giống nhau</t>
+  </si>
+  <si>
+    <t>Phần lọc theo được hiển thị thu gọn khi chọn và ở dưới thanh tìm kiếm
+Chọn vào biểu tượng ▼ sẽ hiển thị các danh mục lọc và sẽ trở thành biểu tượng ⓧ
+Khi chọn biểu tượng ⓧ sẽ thi gọn lại các danh mục lọc và trở thành biểu tượng ▼</t>
+  </si>
+  <si>
+    <t>UTC086</t>
+  </si>
+  <si>
+    <t>UTC087</t>
+  </si>
+  <si>
+    <t>UTC088</t>
+  </si>
+  <si>
+    <t>UTC089</t>
+  </si>
+  <si>
+    <t>UTC090</t>
+  </si>
+  <si>
+    <t>UTC091</t>
+  </si>
+  <si>
+    <t>UTC092</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"</t>
+  </si>
+  <si>
+    <t>Kiểm tra bố cục hiển thị sản phẩm</t>
+  </si>
+  <si>
+    <t>Mở trình duyệt trên thiết bị điện thoại thông minh Samsung Galaxy A51 412x915</t>
+  </si>
+  <si>
+    <t>Kiểm tra header và footer</t>
+  </si>
+  <si>
+    <t>UTC093</t>
+  </si>
+  <si>
+    <t>Kiểm tra font và size, màu chữ của nội dung</t>
+  </si>
+  <si>
+    <t>Từ trên xuống dưới gồm: 
+- breadcrumbs của sản phẩm
+- Bên trái: Ảnh sản phẩm, nút "Thêm vào giỏ hàng", nút "Mua ngay", các chính sách ưu đãi, Bên phải: thông tin sản phẩm và thông tin vận chuyển, ưu đãi, số lượng, mô tả sản phẩm
+- Danh sách các sản phẩm liên quan
+- Danh sách các sản phẩm Fahasa giới thiệu
+- Mục đánh giá sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font: Nunito Sans
+-breadcrumbs: 13px, 212121
+-chính sách ưu đãi: 16px, 212121
+-các mục nhỏ trong chính sách ưu đãi: 14px, 212121
+-tên sản phẩm: 24px, 212121, tag bộ: 14px, 2489f4
+-các thông tin chung: 14px, 212121 nếu là nhà cung cấp: 14px, 2489f4
+-số lượt đánh giá: 14px, f6a500
+-giá sale: 32px, c92127, giá gốc: 15px, 888888, bị gạch ngang, phần trăm sale: 15px, ffffff, nền: c92127
+-tiêu đề thông tin vận chuyển: 18px, 212121
+-địa chỉ: 14px, 212121
+-giao hàng tiêu chuẩn: 16px, 212121
+-dự kiến giao: 14px, 212121
+-tiêu đề ưu đãi: 18px, 212121, nội dung mã: 13px, 212121
+-tiêu đề số lượng: 18px, 212121, số lượng: 17px, 212121
+-tiêu đề thông tin chi tiết: 18px, 212121
+-nội dung thông tin chi tiết: 14px, 212121, một số thông tin dẫn đến các trang khác: 14px, 2489f4
+-lưu ý: 14px, c92127
+-tiêu đề mô tả sản phẩm: 18px, 212121
+-nội dung mô tả sản phẩm: 14px, 212121
+-tiều đề sản phẩm liên quan và fahasa giới thiệu: 17px, 212121
+-sản phẩm: số tập ở góc dưới phải hình ảnh: 11px, ffffff, tên sản phẩm: 14px, 212121, giá giảm: 16px, c92127, giá gốc: 14px, 888888, bị gạch ngang, sale: 14px, ffffff, nền: c92127
+-tiều đề đánh giá sản phẩm: 18px, 212121
+-số điểm trung bình: 24px, 212121, số lượt đánh giá: 14px, 888888, thống kê theo số sao: 14px, 212121
+-lưu ý chỉ có thành viên mới có thể viết nhận xét: 14px, 212121, riêng với đăng nhập và đăng kí: hiển thị: 2489F4, hover: c92127
+</t>
+  </si>
+  <si>
+    <t>Kiiểm tra header và footer của trang</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác của nút "Thêm vào giỏ hàng"</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác của nút "Mua ngay"</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác của các mục hiển thị chi tiết chính sách</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác của các chữ xanh</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác của các sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện mục đánh giá sản phẩm sau khi đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"
+B5: Chọn nút "Thêm vào giỏ hàng"</t>
+  </si>
+  <si>
+    <t>Nút "Thêm vào giỏ hàng": 15px, c92127, nền: ffffff, viền: c92127
+Khi chọn hiển thị thông báo "Đã thêm vào giỏ hàng"</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"
+B5: Chọn nút "Mua ngay"</t>
+  </si>
+  <si>
+    <t>Nút "Thêm vào giỏ hàng": 15px, ffffff, nền: c92127
+Khi chọn sẽ chuyển đến trang giỏ hàng</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"
+B5: Chọn nút "&gt;" trong mục chính sách ưu đãi của Fahasa, mục con Thời gian bảo hàng</t>
+  </si>
+  <si>
+    <t>Khi chọn sẽ hiển thị giao diện pop-up về thông tin đống gói và vận chuyển hàng</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"
+B5: Chọn "Kinokuniya Book Store" và ấn quay lại
+B6: Chọn nút "Thay đổi" tại mục Thông tin vận chuyển và ấn tắt thông tin đó
+B7: Chọn nút "Xem thêm" ở mục Ưu đãi liên quan
+B7: Chọn "RƯỚC DEAL LINH ĐÌNH VUI ĐÓN TRUNG THU" và ấn quay lại
+B8: Chọn "Top 100 sản phẩm Manga Books bán chạy của tháng" và ấn quay lại
+B9: Tại mục Đánh giá sản phẩm, chọn "Đăng nhập" và ấn tắt
+B10: Tại mục Đánh giá sản phẩm, chọn "Đăng kí" và ấn tắt</t>
+  </si>
+  <si>
+    <t>5. Khi chọn sẽ hiển thị đến trang New Japanese Books
+6. Khi chọn hiển thị giao diện popup chọn địa chỉ giao hàng
+7. Khi chọn hiển thị giao diện popup ưu đãi liên quan
+8. Khi chọn hiển thị đến trang sự kiện
+9. Khi chọn hiển thị trang Manga Books
+10. Hiển thị giao diện popup trang đăng nhập
+11. Hiển thị giao diện popup trang đăng kí</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"
+B5: Tại mục Fahasa giới thiệu, chọn sản phẩm có tên "SAKAMOTO DAYS 14"</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang thông tin chi tiết sản phẩm "SAKAMOTO DAYS 14"</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"
+B5: Chọn nút "Viết đánh giá"</t>
+  </si>
+  <si>
+    <t>Nút "Viết đánh giá": 17px, c92127, nền: ffffff, viền: c92127
+Khi chọn hiển thị popup giao diện viết đánh giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Nội dung rõ ràng, không bị che khuất, lấp, các nút có thể tương tác
+Giao diện hiển thị trên các trình duyệt là giống nhau</t>
+  </si>
+  <si>
+    <t>Giao diện hiển thị rõ ràng, không có phần tử nào bị che khuất, lấp, các nút có thể tương tác được</t>
+  </si>
+  <si>
+    <t>UTC094</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác khi chọn hình ảnh của sản phẩm</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 3"
+B5: Chọn hình ảnh sản phẩm</t>
+  </si>
+  <si>
+    <t>Hình ảnh hiển thị toàn màn hình: phía trên là ảnh đang chọn xem, dưới có tên sản phẩm và danh sách hình ảnh. Hình ảnh nào được chọn sẽ có viền màu: c92127, chưa được chọn sẽ có viền màu: ffffff. Khi chọn biểu tượng ở góc phải màn hình thì hiển thị sẽ ẩn hoặc hiện danh sách ảnh phía dưới. Khi chọn nhấn vào biểu tượng mũi trên tài phải hoặc ấn phím trái hoặc phải sẽ hiển thị ảnh liền trước và liền sau của ảnh đang hiển thị. Nếu ảnh đang là ảnh cuối mà nhấn tiếp thì sẽ quay lại ảnh đàu, nếu là ảnh đầu mà nhấn lùi lại sẽ hiển thị ảnh cuối</t>
+  </si>
+  <si>
+    <t>UTC095</t>
+  </si>
+  <si>
+    <t>UTC096</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút "Thêm sản phẩm" và "Mua ngay" trong trường hợp sản phẩm đã hết hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút "Mua ngay" trong trường hợp sản phẩm là hàng đặt trước</t>
+  </si>
+  <si>
+    <t>Nút "Mua ngay" trở thành nút "Đặt trước" vẫn giữ nguyên giao diện của nút "Mua ngay". Khi chọn sẽ hiển thị giao diện giỏ hàng</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 14'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 14"
+B5: Chọn hình ảnh sản phẩm</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 1'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Chọn sản phẩm có tên "SAKAMOTO DAYS 1"
+B5: Chọn hình ảnh sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nút "Thêm sản phẩm" sẽ bị vô hiệu hóa và nút "Mua ngay" sẽ chuyển thành nút "Đã hết hàng" và cũng bị vô hiệu hóa" </t>
+  </si>
+  <si>
+    <t>Kiểm tra nội dung sắp xếp của giao diện kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Nhấn chọn "Độ liên quan"
+B5: Nhấn chọn "Còn hàng"</t>
+  </si>
+  <si>
+    <t>Kiểm tra nội dung sắp xếp của giao diện chọn từ danh mục</t>
+  </si>
+  <si>
+    <t>Font: sans - serif
+Tiêu đề: 14px, 444444
+Nội dung trong dropdown: 14px; 444444</t>
+  </si>
+  <si>
+    <t>B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+B4: Nhấn chọn "Độ liên quan" và chọn "Nổi bật tháng"
+B5: Nhấn chọn "Còn hàng" và chọn "Tất cả"</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác với sắp xếp theo ở giao diện tìm kiếm</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác với sắp xếp theo giao diện chọn từ danh mục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Tại ô tìm kiếm nhập: 'Sakamoto days 3'
+B3: Chọn nút "Tìm kiếm" hoặc nhấn Enter
+</t>
+  </si>
+  <si>
+    <t>từ tiêu đề đến dropdown 1 là 12px
+khoảng cách cửa hai dropdown là  18px
+vị trí: nằm dưới các tag theo kết quả tìm kiếm và nằm về phía bên phải</t>
+  </si>
+  <si>
+    <t>Khi chọn thì tại dropdown  sẽ mở ra, mỗi lần chọn một mục thì kết quả tìm kiếm sẽ được sắp xếp lại và dropdown lại đóng lại và hiển thị nội dung đã chọn</t>
+  </si>
+  <si>
+    <t>Kiểm tra font, size và màu chữ của sắp xếp theo giao diện kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>Kiểm tra font, size và màu chữ của sắp xếp theo giao diện chọn từ danh mục</t>
+  </si>
+  <si>
+    <t>Kiểm tra bộ cục và vị trí của sắp xếp theo giao diện kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>Kiểm tra bộ cục và vị trí của sắp xếp theo giao diện chọn từ danh mục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Di chuột vào biểu tượng danh mục
+B3: Trong danh mục lớn sách trong nước, chọn "Văn học"
+</t>
+  </si>
+  <si>
+    <t>Khi di chuột vào biểu tượng danh mục sẽ hiển thị  bên trái llà danh sách danh mục sản phẩm và bên phải là các danh mục con của danh mục đó bằng cạch di chuột vào các danh mục lớn thì sẽ hiển thị các danh mục con tương ứng
+Tiêu đề: Sắp xếp theo
+dropdown 1: bán chạy tuần (mặc định), bán chạy tháng, bán chạy năm, nổi bật tuần, nổi bật tháng, nổi bật năm, chiết khấu, giá bán
+dropdown 2: 12 sản phẩm, 24 sản phẩm (mặc định), 48 sản phẩm</t>
+  </si>
+  <si>
+    <t>Tiêu đề: Sắp xếp theo
+dropdown 1: độ liên quan (mặc định), bán chạy tháng, nổi bật tháng, chiết khấu, giá từ thấp đến cao, giá từ cao đến thấp, mới nhất
+dropdown 2: còn hàng (mặc định), tất cả
+Nội dung được chọn trong dropdown có vòng tròn tích xanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Mở trình duyệt và truy cập: www.fahasa.com
+B2: Di chuột vào biểu tượng danh mục
+B3: Trong danh mục lớn sách trong nước, chọn "Văn học"
+B4: Chọn "Bán chạy tháng" và "12 sản phẩm"
+</t>
+  </si>
+  <si>
+    <t>Khi chọn thì tại dropdown  sẽ mở ra, mỗi lần chọn một mục thì kết quả tìm kiếm sẽ được sắp xếp lại và dropdown lại đóng lại và hiển thị nội dung đã chọn
+Khi chọn "12 sản phẩm" thì sẽ có 12 sản phẩm hiển thị trên một trang</t>
+  </si>
+  <si>
+    <t>Font: sans-serif
+Tiêu đề: 14px, 000000
+Nội dung trong dropdown: 12px, 444444</t>
+  </si>
+  <si>
+    <t>từ tiêu đề đến dropdown 1 là 12px
+khoảng cách cửa hai dropdown là  18px
+vị trí: nằm phía trên sản phẩm góc trái phần hiển thị danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>UTC097</t>
+  </si>
+  <si>
+    <t>UTC098</t>
+  </si>
+  <si>
+    <t>UTC099</t>
+  </si>
+  <si>
+    <t>UTC100</t>
+  </si>
+  <si>
+    <t>UTC101</t>
+  </si>
+  <si>
+    <t>UTC102</t>
+  </si>
+  <si>
+    <t>UTC103</t>
+  </si>
+  <si>
+    <t>UTC104</t>
+  </si>
+  <si>
+    <t>UTC105</t>
+  </si>
+  <si>
+    <t>UTC106</t>
+  </si>
+  <si>
+    <t>UTC107</t>
+  </si>
+  <si>
+    <t>UTC108</t>
+  </si>
+  <si>
+    <t>UTC109</t>
+  </si>
+  <si>
+    <t>UTC110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra hiển thị trên màn hình có kích thước khác của giao diện từ kết quả tìm kiếm </t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên các trình duyệt khác của giao diện từ kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên màn hình có kích thước khác của giao diện chọn từ danh mục</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên các trình duyệt khác của giao diện chọn từ danh mục</t>
+  </si>
+  <si>
+    <t>Tiêu đề và dropdown hiển thị rõ ràng
+Khi chọn dropdown thì nội dung không bị che khuất, lâp hay bị mất</t>
+  </si>
+  <si>
+    <t>Tiêu đề và dropdown hiển thị rõ ràng
+Khi chọn dropdown thì nội dung không bị che khuất, lâp hay bị mất
+Trên các trình duyệt sẽ hiển thị giống nhau</t>
+  </si>
+  <si>
+    <t>Font: sans - serif
+Tiêu đề: 14px, 444444
+Nội dung trong dropdown: 14px; 444445</t>
+  </si>
+  <si>
+    <t>Font: sans-serif
+Tiêu đề: 14px, 000000
+Nội dung trong dropdown: 12px, 444445</t>
+  </si>
+  <si>
+    <t>Kiểm tra header và footer của giao diện chọn từ danh mục</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1976,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1432,8 +2040,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1450,41 +2094,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1870,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2317,7 +2928,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>86</v>
@@ -2454,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B20" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2925,7 +3536,7 @@
         <v>97</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>142</v>
@@ -3088,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A18" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3483,7 +4094,7 @@
         <v>97</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>156</v>
@@ -3646,8 +4257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3753,7 +4364,7 @@
         <v>206</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -3761,10 +4372,10 @@
       <c r="E10" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="25" t="s">
         <v>209</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -3779,7 +4390,7 @@
         <v>223</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>207</v>
@@ -3787,10 +4398,10 @@
       <c r="E11" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="25" t="s">
         <v>212</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -3843,7 +4454,7 @@
         <v>214</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>1</v>
@@ -3973,7 +4584,7 @@
         <v>235</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>1</v>
@@ -4001,34 +4612,34 @@
       <c r="G19" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="23">
         <v>45647</v>
       </c>
-      <c r="J19" s="42" t="s">
-        <v>244</v>
+      <c r="J19" s="27" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>1</v>
@@ -4039,22 +4650,22 @@
     </row>
     <row r="21" spans="2:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>1</v>
@@ -4065,22 +4676,22 @@
     </row>
     <row r="22" spans="2:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>1</v>
@@ -4091,51 +4702,51 @@
     </row>
     <row r="23" spans="2:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="F23" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="23">
         <v>45647</v>
       </c>
-      <c r="J23" s="42" t="s">
-        <v>268</v>
+      <c r="J23" s="27" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>1</v>
@@ -4156,6 +4767,1400 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="71" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.77734375" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="16"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19">
+        <f>COUNTIF(H10:H59,"Pass")</f>
+        <v>11</v>
+      </c>
+      <c r="G4" s="19">
+        <f>COUNTIF(H10:H59,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="19">
+        <f>COUNTIF(H10:H59,"N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17">
+        <f>COUNTA(B10:B84)</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="20">
+        <f>F4/C5</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4/C5</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="20">
+        <f>H4/C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="23">
+        <v>45648</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H21">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="94" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.77734375" customWidth="1"/>
+    <col min="6" max="6" width="74.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="16"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19">
+        <f>COUNTIF(H10:H59,"Pass")</f>
+        <v>15</v>
+      </c>
+      <c r="G4" s="19">
+        <f>COUNTIF(H10:H59,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <f>COUNTIF(H10:H59,"N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17">
+        <f>COUNTA(B10:B84)</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="20">
+        <f>F4/C5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4/C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <f>H4/C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H24">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="86" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.77734375" customWidth="1"/>
+    <col min="6" max="6" width="74.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="16"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19">
+        <f>COUNTIF(H10:H58,"Pass")</f>
+        <v>13</v>
+      </c>
+      <c r="G4" s="19">
+        <f>COUNTIF(H10:H58,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <f>COUNTIF(H10:H58,"N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17">
+        <f>COUNTA(B10:B83)</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="20">
+        <f>F4/C5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4/C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <f>H4/C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <v>45648</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H22">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q154"/>
   <sheetViews>
@@ -4625,36 +6630,36 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -4665,14 +6670,14 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -4693,64 +6698,64 @@
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
@@ -4763,14 +6768,14 @@
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -5940,17 +7945,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:F2"/>
@@ -5958,6 +7952,17 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Testcase_UI_v2.xlsx
+++ b/docs/Testcase_UI_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704" tabRatio="874" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704" tabRatio="874" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="29" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Sắp xếp sản phẩm" sheetId="35" r:id="rId8"/>
     <sheet name="Thanh toán" sheetId="36" r:id="rId9"/>
     <sheet name="Giỏ hàng" sheetId="37" r:id="rId10"/>
+    <sheet name="Khuyến mãi giảm giá" sheetId="38" r:id="rId11"/>
+    <sheet name="Quản lý hồ sơ cá nhân" sheetId="39" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="624">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -2282,6 +2284,456 @@
   </si>
   <si>
     <t>Kiểm tra hiển thị trên màn hình có kích thước khác của giao diện giỏ hàng</t>
+  </si>
+  <si>
+    <t>UTC144</t>
+  </si>
+  <si>
+    <t>UTC145</t>
+  </si>
+  <si>
+    <t>UTC146</t>
+  </si>
+  <si>
+    <t>UTC147</t>
+  </si>
+  <si>
+    <t>UTC148</t>
+  </si>
+  <si>
+    <t>UTC149</t>
+  </si>
+  <si>
+    <t>UTC150</t>
+  </si>
+  <si>
+    <t>UTC151</t>
+  </si>
+  <si>
+    <t>UTC152</t>
+  </si>
+  <si>
+    <t>UTC153</t>
+  </si>
+  <si>
+    <t>UTC154</t>
+  </si>
+  <si>
+    <t>Kiểm tra nội dung và bố cục của giao diện ví voucher</t>
+  </si>
+  <si>
+    <t>Kiểm tra nội dung và bố cục của giao diện mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra bố cục và giao diện của giao diện popup áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mở trình duyệt
+</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn Ví voucher</t>
+  </si>
+  <si>
+    <t>Ở bên trái gồm: 
+- Thông tin hạng tài khoản: biểu tượng bậc với vòng tròn thể hiện số F-point đã tích lũy trong bậc hiện tại, tên, hạng, số F-point tích lũy, số F - point cần để lên hạng
+- Mục thông tin tài khoản gồm: hồ sơ cá nhân, sổ địa chỉ, đổi mật khẩu, thông tin xuất hóa đơn GTGT, ưu đãi thành viên
+- Mục đơn hàng của tôi, mục ví voucher, mục tài khoản F-point/freeship, mục thông báo, mục sản phẩm yêu thích, mục sách theo bộ và mục nhận xét của tôi
+Ở bên phải gồm:
+- Tên tiêu đề
+- Tab voucher của tôi và voucher của đối tác
+- Danh sách các voucher, trong đó một voucer gồm: biểu tượng voucher, tên voucher, điều kiện áp dụng, nút "Chi tiết", mã, hạn sử dụng và nút "Copy mã"</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Từ trên xuống gồm:
+-breadcrums
+-banner quảng cáo
+-các mã giảm giá, mỗi mã gồm: bên trái: tên mã giảm giá, điều kiện, "Nhập mã ngay", thanh hiển thị số lượng mã, bên phải: thời gian, mã, nút "Copy mã" và nút "Chi tiết thể lệ"
+-quảng cáo trước mục xu hướng mua sắm có thể tự động chuyển theo hướng từ trái sang phải
+-hiển thị các sản phẩm ở mục xu hướng mua sắm</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục giỏ hàng
+B3: Chọn "Xem thêm" ở mục khuyến mãi</t>
+  </si>
+  <si>
+    <t>Kiểm tra font, size và mãu chữ của giao diện ví voucher</t>
+  </si>
+  <si>
+    <t>Kiểm tra font, size và mãu chữ của giao mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra font, size và mãu chữ của giao diện áo dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>font: nunito-sans 
+- Thông tin hạng tài khoản: biểu tượng bậc với vòng tròn thể hiện số F-point đã tích lũy trong bậc hiện tại, tên: 20px,333333, hạng: 12px, 464a4c, số F-point tích lũy và số F - point cần để lên hạng: 13px, 7a7e7f
+- Các mục: 14px, hiển thị: 212121, hover: c92127
+- Tên tiêu đề: 20px, 565555, sans - serif
+- Tab voucher của tôi và voucher của đối tác: 14px, đang được chọn,hover: c92127, không được chọn: 646464
+- Danh sách các voucher, trong đó một voucer gồm: biểu tượng voucher, tên voucher: 16px,333333 , điều kiện áp dụng: 13px, 7a7e7f, nút "Chi tiết": 13px, 007bff, mã: 13px,464a4c, hạn sử dụng: 13px, 464a4c và nút "Copy mã": 13px, ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font: sans-serif
+-breadcrums: mẹ: 12px, 000000, đang hiển thị: 12px, f7941e
+-các mã giảm giá, mỗi mã gồm: bên trái: tên mã giảm giá: 18px, 333333, điều kiện và "Nhập mã ngay": 13px, 333333, thời gian: 13px, 333333, mã: 16px, f39801, nút "Copy mã":11px, ffffff và nút "Chi tiết thể lệ": 11px, c92127
+</t>
+  </si>
+  <si>
+    <t>Từ trên xuống dưới gồm:
+- Biểu tượng mã giảm và tên, lưu ý
+- Khung nhập mã với placehoder: "Nhập mã khuyến mãi/Quà tặng" và nút "Áp dụng"
+- Mã giảm giá: hiển thị các mã và lưu ý áp dụng tối đa là 1, mỗi mã gồm: biểu tượng, tên, điều kiện, nút "Chi tiết" và nút "Áp dụng"
+- Các mục mã vận chuyển, ưu đãi thanh toán và ưu đãi khác tương tự
+- Nút "Xem thêm" có ở mỗi mục</t>
+  </si>
+  <si>
+    <t>Font: sans-serif
+- Tên: 14px, 2f80ed, lưu ý: 14px, 9fa7ab
+- Khung nhập mã: 13px, 495057 và nút "Áp dụng": 13px, ffffff
+- Mã giảm giá: lưu ý áp dụng tối đa là 1: 13px, 9fa7ab, mỗi mã gồm: biểu tượng, tên: 14px, 323232, điều kiện: 13px, 7a7e7f, nút "Chi tiết": 13px, 2489f4 và nút "Áp dụng": 13px, ffffff
+- Các tên mục: 14px, 212121
+- Nút "Xem thêm" có ở mỗi mục: 16px, f7941e</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác với các nút trong giao diện ví voucher</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác với các nút trong giao diện mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác với các nút trong giao diện áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo trên giao diện ví voucher</t>
+  </si>
+  <si>
+    <t>UTC155</t>
+  </si>
+  <si>
+    <t>UTC162</t>
+  </si>
+  <si>
+    <t>UTC163</t>
+  </si>
+  <si>
+    <t>UTC164</t>
+  </si>
+  <si>
+    <t>UTC165</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo trên giao diện mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo trên giao diện áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn Ví voucher
+B4: Chọn vào nút "Chi tiết"
+B5: Chọn vào mã 
+B6: Chọn nút "Copy mã"
+B7: Chọn sang tab voucher đối tác</t>
+  </si>
+  <si>
+    <t>Khi chọn nút "Chi tiết" sẽ hiển thị giao diện popup điều kiện áp dụng và nút "Copy mã"
+Chọn vào mã và chọn nút "Copy mã" sẽ copy mã được chọn
+Chọn sang tab voucher của đối tác sẽ hiển thị các voucher tương tự như voucher của tôi và sẽ hight light cho tab voucher của đối tác, nếu danh sách không có voucher sẽ hiển thị hình ảnh mã giảm giá và "Không có khuyến mãi nào"</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục mã giảm giá
+B3: Chọn nút "Copy mã"
+B4: Chọn nút "Chi tiết thể lệ"
+B5: Chọn vào banner của quảng cáo đầu tiên dưới breadcrums</t>
+  </si>
+  <si>
+    <t>Khi chọn nút "Copy mã" sẽ sao chép mã
+Khi chọn nút "Chi tiết thể lệ" sẽ chuyển đến trang thể lệ sale
+Khi chọn vao quảng cáo sẽ chuyển đến trang nội dung của quảng cáo đó</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục giỏ hàng
+B3: Chọn "Xem thêm" ở mục khuyến mã
+B4: Di chuột tới biểu tượng "!"
+B5: Nhập mã " FHSMG25KT12" và nhấn nút "Áp dụng"
+B6: Chọn nút "Chi tiết" ở mã đầu tiên
+B7: Chọn nút "Áp dụng" ở mã đầu tiên
+B8: Chọn nút "Xem thêm" ở mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Khi di chuột tới biểu tượng "!" sẽ hiển thị " Áp dụng tối đa 1 mã giảm giá và 1 mã freeship"
+Khi nhập kí tự đầu tiên, placehoder sẽ biến mất
+Chọn nút "Áp dụng" để áp dụng mã
+Chọn nút " Chi tiết" để di chuyển tới nội dung điều kiện áp dụng
+Chọn nút " Xem thêm" để mở rộng và xem thêm các voucher trong mục mã giảm giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn vào mã và chọn nút "Copy mã"  hiển thị thông báo "Đã copy" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn Ví voucher
+B4: Chọn vào mã 
+B5: Chọn nút "Copy mã"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập www.fahasa.com
+B2: Chọn mục mã giảm giá
+B3: Chọn nút "Copy mã"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập www.fahasa.com
+B2: Chọn mục giỏ hàng
+B3: Chọn "Xem thêm" ở mục khuyến mã
+B4: Di chuột tới biểu tượng "!"
+B5: Nhập mã " FHSMG25KT12" và nhấn nút "Áp dụng"
+B6: Chọn nút "Áp dụng" ở mã đầu tiên
+</t>
+  </si>
+  <si>
+    <t>Khi chọn nút "Copy mã" hiển thị thông báo "Đã copy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu mã được nhập thì khi áp dụng thông báo lỗi sẽ hiển thị ở dưới ô nhập: 13px, dc3545, sans-serif
+Nếu mã được chọn thì sẽ hiển thị thông báo ở giữa màn hình
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra header và footer của giao diện ví voucher</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên màn hình có kích thước khác của giao diệnví voucher</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên các trình duyệt khác của giao diện ví voucher</t>
+  </si>
+  <si>
+    <t>Kiểm tra tab aside bar và kiểm tra hộp chat của giao diện ví voucher</t>
+  </si>
+  <si>
+    <t>UTC166</t>
+  </si>
+  <si>
+    <t>UTC167</t>
+  </si>
+  <si>
+    <t>UTC168</t>
+  </si>
+  <si>
+    <t>UTC169</t>
+  </si>
+  <si>
+    <t>Kiểm tra header và footer của giao mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên màn hình có kích thước khác của giao diện mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra tab aside bar và kiểm tra hộp chat của giao diện mục mã giảm giá</t>
+  </si>
+  <si>
+    <t>UTC170</t>
+  </si>
+  <si>
+    <t>UTC171</t>
+  </si>
+  <si>
+    <t>UTC172</t>
+  </si>
+  <si>
+    <t>UTC173</t>
+  </si>
+  <si>
+    <t>Kiểm tra header và footer của giao mục áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên màn hình có kích thước khác của giao diện mục áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên các trình duyệt khác của giao diện áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra tab aside bar và kiểm tra hộp chat của giao diện áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra nội dung và bố cục của giao diện quản lý hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn mục thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Kiểm tra font, size và mãu chữ của giao diện quản lí hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra tương tác với các nút trong giao diện quản lý hồ sơ cá nhânr</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo thành công trên giao diện quản lý hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo lỗi trên giao diện quản lý hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>UTC174</t>
+  </si>
+  <si>
+    <t>UTC175</t>
+  </si>
+  <si>
+    <t>UTC176</t>
+  </si>
+  <si>
+    <t>UTC177</t>
+  </si>
+  <si>
+    <t>UTC178</t>
+  </si>
+  <si>
+    <t>UTC179</t>
+  </si>
+  <si>
+    <t>UTC180</t>
+  </si>
+  <si>
+    <t>UTC181</t>
+  </si>
+  <si>
+    <t>UTC182</t>
+  </si>
+  <si>
+    <t>Kiểm tra các giao diện popup khi chọn nút "Thay đổi"</t>
+  </si>
+  <si>
+    <t>UTC183</t>
+  </si>
+  <si>
+    <t>Ở bên trái gồm: 
+- Thông tin hạng tài khoản: biểu tượng bậc với vòng tròn thể hiện số F-point đã tích lũy trong bậc hiện tại, tên, hạng, số F-point tích lũy, số F - point cần để lên hạng
+- Mục thông tin tài khoản gồm: hồ sơ cá nhân, sổ địa chỉ, đổi mật khẩu, thông tin xuất hóa đơn GTGT, ưu đãi thành viên
+- Mục đơn hàng của tôi, mục ví voucher, mục tài khoản F-point/freeship, mục thông báo, mục sản phẩm yêu thích, mục sách theo bộ và mục nhận xét của tôi
+Ở bên phải gồm:
+- Nút "Thành viên" trên nền biểu tượng của Fahasa với nền theo bậc của tài khoản
+- Bên trái: mục "Ưu đãi của bạn": số F- point và freeship hiện có, bên phải: mục "Thành tích năm 2024": số đơn hàng và đã thanh toán
+- Khám phá hạng thanh viên với nút "Xem chi tiết"
+- Tên mục "Hồ sơ cá nhân"
+- Họ, tên có "*", số điện thoại và email có nút "Thay đổi" , giới tính có "*" nam hoặc nữ, ngày sinh: ngày, tháng, năm các trường thông tin hiển thị thông tin hiện tại</t>
+  </si>
+  <si>
+    <t>font: nunito-sans 
+- Thông tin hạng tài khoản: biểu tượng bậc với vòng tròn thể hiện số F-point đã tích lũy trong bậc hiện tại, tên: 20px,333333, hạng: 12px, 464a4c, số F-point tích lũy và số F - point cần để lên hạng: 13px, 7a7e7f
+- Các mục: 14px, hiển thị: 212121, hover: c92127
+- Tên tiêu đề: 20px, 565555, sans - serif
+- Nút "Thành viên": 13px, 7a7e7f
+- Các mục "Ưu đãi của bạn" và "Thành tích năm 2024": 18px, 333333
+- Các mục nhỏ: 16px, 333333
+- Nội dung trong các mục nhỏ: 18px, c92127
+- "Khám phá hạng thành viên": 13px, 333333
+- Nút "Xem chi tiết": 13px, 2489f4, gạch chân
+- Tên mục "Hồ sơ cá nhân": 20px, 565555
+- Các label: 13px, 555555
+- Dấu "*": 13px, f9721f
+- Nội dung trong ô nhập: 14px, 495057
+- Nút "Thay đổi": 13px, 2489f4
+- Nút "Lưu thay đổi": 15px, ffffff</t>
+  </si>
+  <si>
+    <t>Ở bên trái gồm: 
+- Thông tin hạng tài khoản: biểu tượng bậc với vòng tròn thể hiện số F-point đã tích lũy trong bậc hiện tại, tên, hạng, số F-point tích lũy, số F - point cần để lên hạng
+- Mục thông tin tài khoản gồm: hồ sơ cá nhân, sổ địa chỉ, đổi mật khẩu, thông tin xuất hóa đơn GTGT, ưu đãi thành viên
+- Mục đơn hàng của tôi, mục ví voucher, mục tài khoản F-point/freeship, mục thông báo, mục sản phẩm yêu thích, mục sách theo bộ và mục nhận xét của tôi
+Ở bên phải gồm:
+- Nút "Thành viên" trên nền biểu tượng của Fahasa với nền theo bậc của tài khoản
+- Bên trái: mục "Ưu đãi của bạn": số F- point và freeship hiện có, bên phải: mục "Thành tích năm 2024": số đơn hàng và đã thanh toán
+- Khám phá hạng thanh viên với nút "Xem chi tiết"
+- Tên mục "Hồ sơ cá nhân"
+- Họ, tên có "*", số điện thoại và email có nút "Thay đổi" , giới tính có "*" nam hoặc nữ, label của ngày sinh hiển thị theo tiếng Việt là "Birthday"</t>
+  </si>
+  <si>
+    <t>BUG_005</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn mục thông tin tài khoản
+B4: Chọn nút "Thành viên"
+B5: Chọn nút "Xem chi tiết"
+B6: Xóa trường họ và nhập: "Nguyễn Minh", xóa trường tên và nhập "Hiền"
+B7: Chọn giới tính nam
+B8: Chọn lưu thay đổi</t>
+  </si>
+  <si>
+    <t>Khi chọn nút "Thành viên" sẽ chuyển đến trang thành viên Fahasa
+Khi chọn "Xem chi tiết" sẽ chuyển đến mục ưu đãi thành viên trong mục thông tin tài khoản
+Khi xóa hết kí tự trong trường họ và trường tên thì hiển thị placeholder lần lượt là: "Nhập họ" và "Nhập tên" và khi nhập kí tự đầu thì placehoder sẽ biến mất
+Khi chọn giới tính nam radiobutton ở giới tính nam sẽ được đánh dấu
+Chọn nút "Lưu thay đổi" để lưu lại các thay đổi</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn mục thông tin tài khoản
+B4: Chọn nút "Thay đổi " trên lần lượt các trường số điện thoại và email</t>
+  </si>
+  <si>
+    <t>Khi chọn nút "Thay đổ" trên trường số điện thoại sẽ hiển thị giao diện popup thay đổi số điện thoại với các trường số điện thoại và mã xác nhận, nút gửi mã OTP, nút xác nhận không bị vô hiệu hóa khi các trường phía trên hợp lệ và chính xác, trường số điện thoại sẽ chỉ không bị vô hiệu hóa nếu mã OTP được gửi thành công, nút trở về để thoát khỏi giao diện
+Tương tự khi chọn nút "Thay đổi" trên trường email nhưng không có trường số điện thoại mà là trường email</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Thông tin này không thể để trống": 13px, dc3545, nunito sans ở dưới các trường để trống và có kí tự "x" ở bên phải cùng của ô nhập và hiển thị với viền có màu: dc3545</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn mục thông tin tài khoản
+B4: Chọn lưu thay đổi</t>
+  </si>
+  <si>
+    <t>B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn mục thông tin tài khoản
+B4: Xóa trường họ và trường tên
+B5: Chọn lưu thay đổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trang được tải lại và hiển thị thông báo phía dưới mục "Hồ sơ cá nhân" là "Thông tin tài khoản đã được lưu lại": 14px, 2489f4, nunito-sans
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập www.fahasa.com
+B2: Chọn mục tài khoản
+B3: Chọn mục thông tin tài khoản
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra header và footer của giao diện quản lý hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên màn hình có kích thước khác của giao diện quản lý hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trên các trình duyệt khác của giao diện quản lý hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra tab aside bar và kiểm tra hộp chat của giao diện quản lý hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Thông tin này không thể để trống": 13px, dc3545, nunito sans ở dưới các trường để trống và có kí tự "x" ở bên phải cùng của ô nhập và hiển thị với viền có màu: dc3546</t>
   </si>
 </sst>
 </file>
@@ -2678,6 +3130,33 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2692,33 +3171,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3679,36 +4131,36 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -3719,14 +4171,14 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -3737,26 +4189,26 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
@@ -3793,38 +4245,38 @@
         <v>14</v>
       </c>
       <c r="B13" s="29"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -4994,17 +5446,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:F2"/>
@@ -5012,6 +5453,17 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5022,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="61" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A18" zoomScale="61" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5419,6 +5871,1127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
+    <col min="6" max="6" width="74.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="16"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19">
+        <f>COUNTIF(H10:H58,"Pass")</f>
+        <v>24</v>
+      </c>
+      <c r="G4" s="19">
+        <f>COUNTIF(H10:H58,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <f>COUNTIF(H10:H58,"N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17">
+        <f>COUNTA(B10:B83)</f>
+        <v>24</v>
+      </c>
+      <c r="F5" s="20">
+        <f>F4/C5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4/C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <f>H4/C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H33">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
+    <col min="6" max="6" width="74.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="16"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19">
+        <f>COUNTIF(H10:H44,"Pass")</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="19">
+        <f>COUNTIF(H10:H44,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="19">
+        <f>COUNTIF(H10:H44,"N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17">
+        <f>COUNTA(B10:B69)</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="20">
+        <f>F4/C5</f>
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4/C5</f>
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="20">
+        <f>H4/C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="23">
+        <v>45650</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>45650</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H19">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6317,7 +7890,7 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="198" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="211.2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>111</v>
       </c>
@@ -6473,7 +8046,7 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>144</v>
       </c>
@@ -6525,7 +8098,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>149</v>
       </c>
